--- a/Presupuesto/Presupuesto.xlsx
+++ b/Presupuesto/Presupuesto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\Presupuesto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\Yo\Universidad\4to Semestre\Herramientas de Diseño\Prácticas\Proyecto\KiCAD\DIMECRES_4_NETEJAPARABRISES\Presupuesto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D627616C-EB9A-47BA-A2C1-2E85470E4757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1E2E80-374D-41FB-997B-B5546BC20404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -479,33 +479,292 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C5:AF82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K44" zoomScale="66" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,7 +1062,7 @@
     <col min="10" max="10" width="27.77734375" style="2" customWidth="1"/>
     <col min="11" max="11" width="23.88671875" style="2" customWidth="1"/>
     <col min="12" max="12" width="46.5546875" customWidth="1"/>
-    <col min="13" max="13" width="23.44140625" customWidth="1"/>
+    <col min="13" max="13" width="32.109375" customWidth="1"/>
     <col min="14" max="14" width="27.33203125" customWidth="1"/>
     <col min="15" max="15" width="42.77734375" customWidth="1"/>
     <col min="16" max="16" width="18.33203125" customWidth="1"/>
@@ -813,4626 +1072,4626 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
     </row>
     <row r="6" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-    </row>
-    <row r="7" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-    </row>
-    <row r="8" spans="3:32" ht="18" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="7" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+    </row>
+    <row r="7" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+    </row>
+    <row r="8" spans="3:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="7" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
       <c r="S8" s="7"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-    </row>
-    <row r="9" spans="3:32" ht="18" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3" t="s">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="3:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="O9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
     </row>
     <row r="10" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="12">
         <v>4</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="17">
         <f>H10*10</f>
         <v>40</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="27">
         <v>0.24</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="18">
         <f>I10*J10</f>
         <v>9.6</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="12">
         <v>4</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="12">
         <f>P10*50</f>
         <v>200</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="27">
         <v>0.21</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="27">
         <f>Q10*R10</f>
         <v>42</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="13">
         <v>2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="21">
         <f t="shared" ref="I11:I40" si="0">H11*10</f>
         <v>20</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="28">
         <v>0.124</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" ref="K11:K41" si="1">I11*J11</f>
+      <c r="K11" s="22">
+        <f t="shared" ref="K11:K40" si="1">I11*J11</f>
         <v>2.48</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="13">
         <v>2</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="13">
         <f t="shared" ref="Q11:Q41" si="2">P11*50</f>
         <v>100</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="28">
         <v>0.10299999999999999</v>
       </c>
-      <c r="S11" s="5">
-        <f t="shared" ref="S11:S41" si="3">Q11*R11</f>
+      <c r="S11" s="28">
+        <f t="shared" ref="S11:S40" si="3">Q11*R11</f>
         <v>10.299999999999999</v>
       </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="13">
         <v>2</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="28">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="22">
         <f t="shared" si="1"/>
         <v>2.72</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="3"/>
+      <c r="M12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="13">
         <v>2</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="13">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="28">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="28">
         <f t="shared" si="3"/>
         <v>7.9</v>
       </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="13">
         <v>6</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="28">
         <v>0.17799999999999999</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="22">
         <f t="shared" si="1"/>
         <v>10.68</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
+      <c r="L13" s="3"/>
+      <c r="M13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="13">
         <v>6</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="13">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="28">
         <v>0.105</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="28">
         <f t="shared" si="3"/>
         <v>31.5</v>
       </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="28">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="22">
         <f t="shared" si="1"/>
         <v>0.8899999999999999</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4" t="s">
+      <c r="L14" s="3"/>
+      <c r="M14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="4">
+      <c r="P14" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="28">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="28">
         <f t="shared" si="3"/>
         <v>4.45</v>
       </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="28">
         <v>0.16200000000000001</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="22">
         <f t="shared" si="1"/>
         <v>1.62</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4" t="s">
+      <c r="L15" s="3"/>
+      <c r="M15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="N15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="4">
+      <c r="P15" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="28">
         <v>0.16200000000000001</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="28">
         <f t="shared" si="3"/>
         <v>8.1</v>
       </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="13">
         <v>2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="28">
         <v>0.157</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="22">
         <f t="shared" si="1"/>
         <v>3.14</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4" t="s">
+      <c r="L16" s="3"/>
+      <c r="M16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="13">
         <v>2</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="13">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="28">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="28">
         <f t="shared" si="3"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
     </row>
     <row r="17" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="13">
         <v>11</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="21">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="28">
         <v>0.22</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="22">
         <f t="shared" si="1"/>
         <v>24.2</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
+      <c r="L17" s="3"/>
+      <c r="M17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="13">
         <v>11</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="13">
         <f t="shared" si="2"/>
         <v>550</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="28">
         <v>0.18</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="28">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="H18" s="13">
+        <v>1</v>
+      </c>
+      <c r="I18" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="28">
         <v>0.114</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="22">
         <f t="shared" si="1"/>
         <v>1.1400000000000001</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4" t="s">
+      <c r="L18" s="3"/>
+      <c r="M18" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="P18" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="4">
+      <c r="P18" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="28">
         <v>0.114</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="28">
         <f t="shared" si="3"/>
         <v>5.7</v>
       </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
     </row>
     <row r="19" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="13">
         <v>2</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="28">
         <v>0.192</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="22">
         <f t="shared" si="1"/>
         <v>3.84</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
+      <c r="L19" s="3"/>
+      <c r="M19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="13">
         <v>2</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="13">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="28">
         <v>0.109</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="28">
         <f t="shared" si="3"/>
         <v>10.9</v>
       </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
     </row>
     <row r="20" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="13">
         <v>2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="28">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="22">
         <f t="shared" si="1"/>
         <v>1.1400000000000001</v>
       </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4" t="s">
+      <c r="L20" s="3"/>
+      <c r="M20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="O20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="13">
         <v>2</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="13">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="28">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="28">
         <f t="shared" si="3"/>
         <v>5.3</v>
       </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="4">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="13">
+        <v>1</v>
+      </c>
+      <c r="I21" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="28">
         <v>0.11899999999999999</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="22">
         <f t="shared" si="1"/>
         <v>1.19</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4" t="s">
+      <c r="L21" s="3"/>
+      <c r="M21" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="4">
+      <c r="P21" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="28">
         <v>0.11899999999999999</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="28">
         <f t="shared" si="3"/>
         <v>5.9499999999999993</v>
       </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4">
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
+      <c r="I22" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="28">
         <v>0.13200000000000001</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="22">
         <f t="shared" si="1"/>
         <v>1.32</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4" t="s">
+      <c r="L22" s="3"/>
+      <c r="M22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="N22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="P22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="4">
+      <c r="P22" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="28">
         <v>0.13200000000000001</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="28">
         <f t="shared" si="3"/>
         <v>6.6000000000000005</v>
       </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H23" s="13">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="22">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4" t="s">
+      <c r="L23" s="3"/>
+      <c r="M23" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="P23" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="4">
+      <c r="P23" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="28">
         <v>0.94899999999999995</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="28">
         <f t="shared" si="3"/>
         <v>47.449999999999996</v>
       </c>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="28">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="22">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4" t="s">
+      <c r="L24" s="3"/>
+      <c r="M24" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="4">
+      <c r="P24" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="13">
         <f>P24*50</f>
         <v>50</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="28">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="28">
         <f t="shared" si="3"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
     </row>
     <row r="25" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="13">
         <v>61300211121</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="13">
         <v>5</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="21">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="28">
         <v>0.08</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="22">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4" t="s">
+      <c r="L25" s="3"/>
+      <c r="M25" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="13">
         <v>61300211121</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="13">
         <v>5</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="13">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="28">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25" s="28">
         <f t="shared" si="3"/>
         <v>15.975</v>
       </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
     </row>
     <row r="26" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4">
+      <c r="H26" s="13">
+        <v>1</v>
+      </c>
+      <c r="I26" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="28">
         <v>0.123</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="22">
         <f t="shared" si="1"/>
         <v>1.23</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4" t="s">
+      <c r="L26" s="3"/>
+      <c r="M26" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O26" s="6" t="s">
+      <c r="O26" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="4">
+      <c r="P26" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="28">
         <v>0.124</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="28">
         <f t="shared" si="3"/>
         <v>6.2</v>
       </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
     </row>
     <row r="27" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="13">
         <v>61300611121</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="4">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4">
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="I27" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="28">
         <v>0.26800000000000002</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="22">
         <f t="shared" si="1"/>
         <v>2.68</v>
       </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4" t="s">
+      <c r="L27" s="3"/>
+      <c r="M27" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="13">
         <v>61300611121</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="O27" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P27" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="4">
+      <c r="P27" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="28">
         <v>0.186</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="28">
         <f t="shared" si="3"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="13">
         <v>1729128</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="13">
         <v>2</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="28">
         <v>0.95</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="22">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
+      <c r="L28" s="3"/>
+      <c r="M28" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="13">
         <v>1729128</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="O28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="13">
         <v>2</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="13">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="28">
         <v>0.84</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="28">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="13">
         <v>1729131</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="13">
         <v>2</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="28">
         <v>1.379</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="22">
         <f t="shared" si="1"/>
         <v>27.58</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4" t="s">
+      <c r="L29" s="3"/>
+      <c r="M29" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="13">
         <v>1729131</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="13">
         <v>2</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="13">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="28">
         <v>1.2709999999999999</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="28">
         <f t="shared" si="3"/>
         <v>127.1</v>
       </c>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="13">
         <v>2</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="28">
         <v>2.67</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="22">
         <f t="shared" si="1"/>
         <v>53.4</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4" t="s">
+      <c r="L30" s="3"/>
+      <c r="M30" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N30" s="4" t="s">
+      <c r="N30" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="O30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="13">
         <v>2</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="13">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30" s="28">
         <v>2.6</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="28">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
     </row>
     <row r="31" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="13">
         <v>2</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="28">
         <v>1.9039999999999999</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="22">
         <f t="shared" si="1"/>
         <v>38.08</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4" t="s">
+      <c r="L31" s="3"/>
+      <c r="M31" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="N31" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="O31" s="6" t="s">
+      <c r="O31" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="13">
         <v>2</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="13">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="28">
         <v>1.32</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="28">
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
     </row>
     <row r="32" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="13">
         <v>4</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="28">
         <v>0.11899999999999999</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="22">
         <f t="shared" si="1"/>
         <v>4.76</v>
       </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4" t="s">
+      <c r="L32" s="3"/>
+      <c r="M32" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N32" s="4" t="s">
+      <c r="N32" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O32" s="6" t="s">
+      <c r="O32" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="13">
         <v>4</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="13">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" s="28">
         <v>0.107</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="28">
         <f t="shared" si="3"/>
         <v>21.4</v>
       </c>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
     </row>
     <row r="33" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="4">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4">
+      <c r="H33" s="13">
+        <v>1</v>
+      </c>
+      <c r="I33" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="28">
         <v>7.72</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="22">
         <f t="shared" si="1"/>
         <v>77.2</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4" t="s">
+      <c r="L33" s="3"/>
+      <c r="M33" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="N33" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="O33" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="P33" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="4">
+      <c r="P33" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R33" s="5">
+      <c r="R33" s="28">
         <v>7.72</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33" s="28">
         <f t="shared" si="3"/>
         <v>386</v>
       </c>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
     </row>
     <row r="34" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="4">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4">
+      <c r="H34" s="13">
+        <v>1</v>
+      </c>
+      <c r="I34" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="28">
         <v>1.23</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="22">
         <f t="shared" si="1"/>
         <v>12.3</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4" t="s">
+      <c r="L34" s="3"/>
+      <c r="M34" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="N34" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="O34" s="6" t="s">
+      <c r="O34" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="P34" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="4">
+      <c r="P34" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="13">
         <f>P34*50</f>
         <v>50</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="28">
         <v>1.18</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="28">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
     </row>
     <row r="35" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="13">
         <v>2</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="28">
         <v>2.98</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="22">
         <f t="shared" si="1"/>
         <v>59.6</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4" t="s">
+      <c r="L35" s="3"/>
+      <c r="M35" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="N35" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="O35" s="6" t="s">
+      <c r="O35" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="13">
         <v>2</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="13">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35" s="28">
         <v>2.46</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="28">
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
     </row>
     <row r="36" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="4">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4">
+      <c r="H36" s="13">
+        <v>1</v>
+      </c>
+      <c r="I36" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="28">
         <v>0.86</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="22">
         <f t="shared" si="1"/>
         <v>8.6</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4" t="s">
+      <c r="L36" s="3"/>
+      <c r="M36" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="N36" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="O36" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P36" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="4">
+      <c r="P36" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R36" s="28">
         <v>0.77900000000000003</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="28">
         <f t="shared" si="3"/>
         <v>38.950000000000003</v>
       </c>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
     </row>
     <row r="37" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="13">
         <v>2</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="28">
         <v>2.4039999999999999</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="22">
         <f t="shared" si="1"/>
         <v>48.08</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4" t="s">
+      <c r="L37" s="3"/>
+      <c r="M37" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="N37" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="O37" s="6" t="s">
+      <c r="O37" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="13">
         <v>2</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="13">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R37" s="5">
+      <c r="R37" s="28">
         <v>2.02</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S37" s="28">
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="4">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4">
+      <c r="H38" s="13">
+        <v>1</v>
+      </c>
+      <c r="I38" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="28">
         <v>1.51</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="22">
         <f t="shared" si="1"/>
         <v>15.1</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4" t="s">
+      <c r="L38" s="3"/>
+      <c r="M38" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="N38" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="O38" s="6" t="s">
+      <c r="O38" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P38" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="4">
+      <c r="P38" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R38" s="5">
+      <c r="R38" s="28">
         <v>1.48</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38" s="28">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
     </row>
     <row r="39" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="13">
         <v>2</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="28">
         <v>3.468</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="22">
         <f t="shared" si="1"/>
         <v>69.36</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4" t="s">
+      <c r="L39" s="3"/>
+      <c r="M39" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="N39" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O39" s="6" t="s">
+      <c r="O39" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="13">
         <v>2</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="13">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R39" s="5">
+      <c r="R39" s="28">
         <v>2.94</v>
       </c>
-      <c r="S39" s="5">
+      <c r="S39" s="28">
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
     </row>
     <row r="40" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="4">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4">
+      <c r="H40" s="13">
+        <v>1</v>
+      </c>
+      <c r="I40" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="28">
         <v>0.42799999999999999</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="22">
         <f t="shared" si="1"/>
         <v>4.28</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4" t="s">
+      <c r="L40" s="3"/>
+      <c r="M40" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="N40" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="O40" s="6" t="s">
+      <c r="O40" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="4">
+      <c r="P40" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R40" s="5">
+      <c r="R40" s="28">
         <v>0.38800000000000001</v>
       </c>
-      <c r="S40" s="5">
+      <c r="S40" s="28">
         <f t="shared" si="3"/>
         <v>19.400000000000002</v>
       </c>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-      <c r="AD40" s="4"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="4"/>
-    </row>
-    <row r="41" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="4">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4">
+      <c r="H41" s="14">
+        <v>1</v>
+      </c>
+      <c r="I41" s="25">
         <f>H41*10</f>
         <v>10</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="29">
         <f>K41/I41</f>
         <v>1.7899999999999998</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="26">
         <v>17.899999999999999</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4" t="s">
+      <c r="L41" s="3"/>
+      <c r="M41" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="N41" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="O41" s="6" t="s">
+      <c r="O41" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P41" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="4">
+      <c r="P41" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="14">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="R41" s="5">
+      <c r="R41" s="29">
         <f>S41/Q41</f>
         <v>1.0680000000000001</v>
       </c>
-      <c r="S41" s="5">
+      <c r="S41" s="29">
         <v>53.4</v>
       </c>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AE41" s="4"/>
-      <c r="AF41" s="4"/>
-    </row>
-    <row r="42" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+    </row>
+    <row r="42" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
     </row>
     <row r="43" spans="3:32" ht="18" x14ac:dyDescent="0.3">
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="8" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="31">
         <f>SUM(K10:K41)</f>
         <v>538.29</v>
       </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="8" t="s">
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="S43" s="8">
+      <c r="S43" s="31">
         <f>SUM(S10:S41)</f>
         <v>2324.0749999999998</v>
       </c>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-    </row>
-    <row r="44" spans="3:32" ht="18" x14ac:dyDescent="0.3">
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="8" t="s">
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+    </row>
+    <row r="44" spans="3:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="33">
         <f>K43/10</f>
         <v>53.828999999999994</v>
       </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="8" t="s">
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="S44" s="8">
+      <c r="S44" s="33">
         <f>S43/50</f>
         <v>46.481499999999997</v>
       </c>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="4"/>
-      <c r="AE44" s="4"/>
-      <c r="AF44" s="4"/>
-    </row>
-    <row r="45" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-      <c r="AD45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-    </row>
-    <row r="46" spans="3:32" ht="18" x14ac:dyDescent="0.3">
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="7" t="s">
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+    </row>
+    <row r="45" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+    </row>
+    <row r="46" spans="3:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
       <c r="K46" s="7"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="7" t="s">
+      <c r="L46" s="3"/>
+      <c r="M46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
       <c r="S46" s="7"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-    </row>
-    <row r="47" spans="3:32" ht="18" x14ac:dyDescent="0.3">
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="3" t="s">
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+    </row>
+    <row r="47" spans="3:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="G47" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="3" t="s">
+      <c r="L47" s="3"/>
+      <c r="M47" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="N47" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P47" s="3" t="s">
+      <c r="O47" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P47" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="Q47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R47" s="8" t="s">
+      <c r="R47" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="8" t="s">
+      <c r="S47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
     </row>
     <row r="48" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="12">
         <v>4</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="17">
         <f>H48*1000</f>
         <v>4000</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="27">
         <v>0.19600000000000001</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="18">
         <f>I48*J48</f>
         <v>784</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4" t="s">
+      <c r="L48" s="3"/>
+      <c r="M48" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="N48" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O48" s="6" t="s">
+      <c r="O48" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="13">
         <v>4</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q48" s="21">
         <f>P48*20000</f>
         <v>80000</v>
       </c>
-      <c r="R48" s="5">
+      <c r="R48" s="28">
         <v>0.17</v>
       </c>
-      <c r="S48" s="5">
+      <c r="S48" s="22">
         <f>Q48*R48</f>
         <v>13600.000000000002</v>
       </c>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="4"/>
-      <c r="AF48" s="4"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
     </row>
     <row r="49" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="13">
         <v>2</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="21">
         <f t="shared" ref="I49:I79" si="4">H49*1000</f>
         <v>2000</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="28">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="K49" s="5">
-        <f t="shared" ref="K49:K79" si="5">I49*J49</f>
+      <c r="K49" s="22">
+        <f t="shared" ref="K49:K78" si="5">I49*J49</f>
         <v>168</v>
       </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4" t="s">
+      <c r="L49" s="3"/>
+      <c r="M49" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="N49" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O49" s="6" t="s">
+      <c r="O49" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P49" s="4">
+      <c r="P49" s="13">
         <v>2</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q49" s="21">
         <f t="shared" ref="Q49:Q79" si="6">P49*20000</f>
         <v>40000</v>
       </c>
-      <c r="R49" s="5">
+      <c r="R49" s="28">
         <v>6.2E-2</v>
       </c>
-      <c r="S49" s="5">
-        <f t="shared" ref="S49:S79" si="7">Q49*R49</f>
+      <c r="S49" s="22">
+        <f t="shared" ref="S49:S78" si="7">Q49*R49</f>
         <v>2480</v>
       </c>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-      <c r="AD49" s="4"/>
-      <c r="AE49" s="4"/>
-      <c r="AF49" s="4"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
     </row>
     <row r="50" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="13">
         <v>2</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="21">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="28">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="22">
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4" t="s">
+      <c r="L50" s="3"/>
+      <c r="M50" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N50" s="4" t="s">
+      <c r="N50" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O50" s="6" t="s">
+      <c r="O50" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="13">
         <v>2</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="Q50" s="21">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
-      <c r="R50" s="5">
+      <c r="R50" s="28">
         <v>3.9E-2</v>
       </c>
-      <c r="S50" s="5">
+      <c r="S50" s="22">
         <f t="shared" si="7"/>
         <v>1560</v>
       </c>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
-      <c r="AD50" s="4"/>
-      <c r="AE50" s="4"/>
-      <c r="AF50" s="4"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
     </row>
     <row r="51" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="13">
         <v>6</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="21">
         <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="28">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="22">
         <f t="shared" si="5"/>
         <v>336</v>
       </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4" t="s">
+      <c r="L51" s="3"/>
+      <c r="M51" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="N51" s="4" t="s">
+      <c r="N51" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O51" s="6" t="s">
+      <c r="O51" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="13">
         <v>6</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="Q51" s="21">
         <f t="shared" si="6"/>
         <v>120000</v>
       </c>
-      <c r="R51" s="5">
+      <c r="R51" s="28">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="S51" s="5">
+      <c r="S51" s="22">
         <f t="shared" si="7"/>
         <v>6120</v>
       </c>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
     </row>
     <row r="52" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H52" s="4">
-        <v>1</v>
-      </c>
-      <c r="I52" s="4">
+      <c r="H52" s="13">
+        <v>1</v>
+      </c>
+      <c r="I52" s="21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="28">
         <v>3.1E-2</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="22">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4" t="s">
+      <c r="L52" s="3"/>
+      <c r="M52" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="N52" s="4" t="s">
+      <c r="N52" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O52" s="6" t="s">
+      <c r="O52" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="P52" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="4">
+      <c r="P52" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="21">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R52" s="5">
+      <c r="R52" s="28">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="S52" s="5">
+      <c r="S52" s="22">
         <f t="shared" si="7"/>
         <v>440</v>
       </c>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="4"/>
-      <c r="AF52" s="4"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
     </row>
     <row r="53" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="4">
-        <v>1</v>
-      </c>
-      <c r="I53" s="4">
+      <c r="H53" s="13">
+        <v>1</v>
+      </c>
+      <c r="I53" s="21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="28">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53" s="22">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4" t="s">
+      <c r="L53" s="3"/>
+      <c r="M53" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="N53" s="4" t="s">
+      <c r="N53" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O53" s="6" t="s">
+      <c r="O53" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="P53" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="4">
+      <c r="P53" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="21">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R53" s="5">
+      <c r="R53" s="28">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="S53" s="5">
+      <c r="S53" s="22">
         <f t="shared" si="7"/>
         <v>1280</v>
       </c>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
     </row>
     <row r="54" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="13">
         <v>2</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I54" s="21">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="28">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="22">
         <f t="shared" si="5"/>
         <v>134</v>
       </c>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4" t="s">
+      <c r="L54" s="3"/>
+      <c r="M54" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="N54" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O54" s="6" t="s">
+      <c r="O54" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="P54" s="4">
+      <c r="P54" s="13">
         <v>2</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="Q54" s="21">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
-      <c r="R54" s="5">
+      <c r="R54" s="28">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="S54" s="5">
+      <c r="S54" s="22">
         <f t="shared" si="7"/>
         <v>1960</v>
       </c>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
     </row>
     <row r="55" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="13">
         <v>11</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="21">
         <f>H55*1000</f>
         <v>11000</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="28">
         <v>0.13</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55" s="22">
         <f t="shared" si="5"/>
         <v>1430</v>
       </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4" t="s">
+      <c r="L55" s="3"/>
+      <c r="M55" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="N55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="O55" s="6" t="s">
+      <c r="O55" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="13">
         <v>11</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="Q55" s="21">
         <f t="shared" si="6"/>
         <v>220000</v>
       </c>
-      <c r="R55" s="5">
+      <c r="R55" s="28">
         <v>0.12</v>
       </c>
-      <c r="S55" s="5">
+      <c r="S55" s="22">
         <f t="shared" si="7"/>
         <v>26400</v>
       </c>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
     </row>
     <row r="56" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="4">
-        <v>1</v>
-      </c>
-      <c r="I56" s="4">
+      <c r="H56" s="13">
+        <v>1</v>
+      </c>
+      <c r="I56" s="21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="28">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="22">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4" t="s">
+      <c r="L56" s="3"/>
+      <c r="M56" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="N56" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="O56" s="6" t="s">
+      <c r="O56" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="P56" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="4">
+      <c r="P56" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="21">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R56" s="5">
+      <c r="R56" s="28">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="S56" s="5">
+      <c r="S56" s="22">
         <f t="shared" si="7"/>
         <v>760</v>
       </c>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
     </row>
     <row r="57" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="13">
         <v>2</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="21">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="28">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="22">
         <f t="shared" si="5"/>
         <v>178</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4" t="s">
+      <c r="L57" s="3"/>
+      <c r="M57" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="N57" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O57" s="6" t="s">
+      <c r="O57" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="13">
         <v>2</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="Q57" s="21">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
-      <c r="R57" s="5">
+      <c r="R57" s="28">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="S57" s="5">
+      <c r="S57" s="22">
         <f t="shared" si="7"/>
         <v>2120</v>
       </c>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
     </row>
     <row r="58" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="13">
         <v>2</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I58" s="21">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="28">
         <v>3.9E-2</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58" s="22">
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4" t="s">
+      <c r="L58" s="3"/>
+      <c r="M58" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="N58" s="4" t="s">
+      <c r="N58" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O58" s="6" t="s">
+      <c r="O58" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="P58" s="4">
+      <c r="P58" s="13">
         <v>2</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="Q58" s="21">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
-      <c r="R58" s="5">
+      <c r="R58" s="28">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="S58" s="5">
+      <c r="S58" s="22">
         <f t="shared" si="7"/>
         <v>880</v>
       </c>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
     </row>
     <row r="59" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="4">
-        <v>1</v>
-      </c>
-      <c r="I59" s="4">
+      <c r="H59" s="13">
+        <v>1</v>
+      </c>
+      <c r="I59" s="21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="28">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="22">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4" t="s">
+      <c r="L59" s="3"/>
+      <c r="M59" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="N59" s="4" t="s">
+      <c r="N59" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="O59" s="6" t="s">
+      <c r="O59" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="P59" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="4">
+      <c r="P59" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="21">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R59" s="5">
+      <c r="R59" s="28">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="S59" s="5">
+      <c r="S59" s="22">
         <f t="shared" si="7"/>
         <v>560</v>
       </c>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
     </row>
     <row r="60" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="4">
-        <v>1</v>
-      </c>
-      <c r="I60" s="4">
+      <c r="H60" s="13">
+        <v>1</v>
+      </c>
+      <c r="I60" s="21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="28">
         <v>3.9E-2</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60" s="22">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4" t="s">
+      <c r="L60" s="3"/>
+      <c r="M60" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="N60" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="O60" s="6" t="s">
+      <c r="O60" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="P60" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="4">
+      <c r="P60" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="21">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R60" s="5">
+      <c r="R60" s="28">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="S60" s="5">
+      <c r="S60" s="22">
         <f t="shared" si="7"/>
         <v>520</v>
       </c>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
     </row>
     <row r="61" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="H61" s="4">
-        <v>1</v>
-      </c>
-      <c r="I61" s="4">
+      <c r="H61" s="13">
+        <v>1</v>
+      </c>
+      <c r="I61" s="21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="28">
         <v>0.80100000000000005</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="22">
         <f t="shared" si="5"/>
         <v>801</v>
       </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4" t="s">
+      <c r="L61" s="3"/>
+      <c r="M61" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="N61" s="4" t="s">
+      <c r="N61" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O61" s="6" t="s">
+      <c r="O61" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="P61" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="4">
+      <c r="P61" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="21">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R61" s="5">
+      <c r="R61" s="28">
         <v>0.73299999999999998</v>
       </c>
-      <c r="S61" s="5">
+      <c r="S61" s="22">
         <f t="shared" si="7"/>
         <v>14660</v>
       </c>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="4"/>
-      <c r="AF61" s="4"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="3"/>
     </row>
     <row r="62" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="4">
-        <v>1</v>
-      </c>
-      <c r="I62" s="4">
+      <c r="H62" s="13">
+        <v>1</v>
+      </c>
+      <c r="I62" s="21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="28">
         <v>1.26E-2</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K62" s="22">
         <f t="shared" si="5"/>
         <v>12.6</v>
       </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4" t="s">
+      <c r="L62" s="3"/>
+      <c r="M62" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="N62" s="4" t="s">
+      <c r="N62" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O62" s="6" t="s">
+      <c r="O62" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P62" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="4">
+      <c r="P62" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="21">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R62" s="5">
+      <c r="R62" s="28">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="S62" s="5">
+      <c r="S62" s="22">
         <f t="shared" si="7"/>
         <v>214</v>
       </c>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
-      <c r="AA62" s="4"/>
-      <c r="AB62" s="4"/>
-      <c r="AC62" s="4"/>
-      <c r="AD62" s="4"/>
-      <c r="AE62" s="4"/>
-      <c r="AF62" s="4"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
     </row>
     <row r="63" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4" t="s">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="13">
         <v>61300211121</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="13">
         <v>5</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I63" s="21">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="28">
         <v>0.06</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63" s="22">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4" t="s">
+      <c r="L63" s="3"/>
+      <c r="M63" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N63" s="13">
         <v>61300211121</v>
       </c>
-      <c r="O63" s="6" t="s">
+      <c r="O63" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P63" s="4">
+      <c r="P63" s="13">
         <v>5</v>
       </c>
-      <c r="Q63" s="4">
+      <c r="Q63" s="21">
         <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="R63" s="5">
+      <c r="R63" s="28">
         <v>0.06</v>
       </c>
-      <c r="S63" s="5">
+      <c r="S63" s="22">
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
     </row>
     <row r="64" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="4">
-        <v>1</v>
-      </c>
-      <c r="I64" s="4">
+      <c r="H64" s="13">
+        <v>1</v>
+      </c>
+      <c r="I64" s="21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64" s="28">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K64" s="22">
         <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4" t="s">
+      <c r="L64" s="3"/>
+      <c r="M64" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="N64" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="O64" s="6" t="s">
+      <c r="O64" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="P64" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="4">
+      <c r="P64" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="21">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R64" s="5">
+      <c r="R64" s="28">
         <v>7.6060000000000003E-2</v>
       </c>
-      <c r="S64" s="5">
+      <c r="S64" s="22">
         <f t="shared" si="7"/>
         <v>1521.2</v>
       </c>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
-      <c r="AA64" s="4"/>
-      <c r="AB64" s="4"/>
-      <c r="AC64" s="4"/>
-      <c r="AD64" s="4"/>
-      <c r="AE64" s="4"/>
-      <c r="AF64" s="4"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
     </row>
     <row r="65" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="13">
         <v>61300611121</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H65" s="4">
-        <v>1</v>
-      </c>
-      <c r="I65" s="4">
+      <c r="H65" s="13">
+        <v>1</v>
+      </c>
+      <c r="I65" s="21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="28">
         <v>0.153</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="22">
         <f t="shared" si="5"/>
         <v>153</v>
       </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4" t="s">
+      <c r="L65" s="3"/>
+      <c r="M65" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N65" s="13">
         <v>61300611121</v>
       </c>
-      <c r="O65" s="6" t="s">
+      <c r="O65" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P65" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="4">
+      <c r="P65" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="21">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R65" s="5">
+      <c r="R65" s="28">
         <v>0.15390000000000001</v>
       </c>
-      <c r="S65" s="5">
+      <c r="S65" s="22">
         <f t="shared" si="7"/>
         <v>3078</v>
       </c>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-      <c r="AB65" s="4"/>
-      <c r="AC65" s="4"/>
-      <c r="AD65" s="4"/>
-      <c r="AE65" s="4"/>
-      <c r="AF65" s="4"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+      <c r="AA65" s="3"/>
+      <c r="AB65" s="3"/>
+      <c r="AC65" s="3"/>
+      <c r="AD65" s="3"/>
+      <c r="AE65" s="3"/>
+      <c r="AF65" s="3"/>
     </row>
     <row r="66" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4" t="s">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="13">
         <v>1729128</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H66" s="13">
         <v>2</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I66" s="21">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" s="28">
         <v>0.84219999999999995</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="22">
         <f t="shared" si="5"/>
         <v>1684.3999999999999</v>
       </c>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4" t="s">
+      <c r="L66" s="3"/>
+      <c r="M66" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N66" s="13">
         <v>1729128</v>
       </c>
-      <c r="O66" s="6" t="s">
+      <c r="O66" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="P66" s="4">
+      <c r="P66" s="13">
         <v>2</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="Q66" s="21">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
-      <c r="R66" s="5">
+      <c r="R66" s="28">
         <v>0.84219999999999995</v>
       </c>
-      <c r="S66" s="5">
+      <c r="S66" s="22">
         <f t="shared" si="7"/>
         <v>33688</v>
       </c>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
-      <c r="AC66" s="4"/>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="4"/>
-      <c r="AF66" s="4"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
+      <c r="AC66" s="3"/>
+      <c r="AD66" s="3"/>
+      <c r="AE66" s="3"/>
+      <c r="AF66" s="3"/>
     </row>
     <row r="67" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4" t="s">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="13">
         <v>1729131</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="13">
         <v>2</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="21">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="28">
         <v>1.2709999999999999</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="22">
         <f t="shared" si="5"/>
         <v>2542</v>
       </c>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4" t="s">
+      <c r="L67" s="3"/>
+      <c r="M67" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N67" s="13">
         <v>1729131</v>
       </c>
-      <c r="O67" s="6" t="s">
+      <c r="O67" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P67" s="4">
+      <c r="P67" s="13">
         <v>2</v>
       </c>
-      <c r="Q67" s="4">
+      <c r="Q67" s="21">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
-      <c r="R67" s="5">
+      <c r="R67" s="28">
         <v>1.2709999999999999</v>
       </c>
-      <c r="S67" s="5">
+      <c r="S67" s="22">
         <f t="shared" si="7"/>
         <v>50839.999999999993</v>
       </c>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4"/>
-      <c r="AA67" s="4"/>
-      <c r="AB67" s="4"/>
-      <c r="AC67" s="4"/>
-      <c r="AD67" s="4"/>
-      <c r="AE67" s="4"/>
-      <c r="AF67" s="4"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
     </row>
     <row r="68" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4" t="s">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H68" s="13">
         <v>2</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="21">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J68" s="28">
         <v>2.3199999999999998</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="22">
         <f t="shared" si="5"/>
         <v>4640</v>
       </c>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4" t="s">
+      <c r="L68" s="3"/>
+      <c r="M68" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="N68" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="O68" s="6" t="s">
+      <c r="O68" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P68" s="4">
+      <c r="P68" s="13">
         <v>2</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="Q68" s="21">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
-      <c r="R68" s="5">
+      <c r="R68" s="28">
         <v>2.2799999999999998</v>
       </c>
-      <c r="S68" s="5">
+      <c r="S68" s="22">
         <f t="shared" si="7"/>
         <v>91199.999999999985</v>
       </c>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-      <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
-      <c r="AC68" s="4"/>
-      <c r="AD68" s="4"/>
-      <c r="AE68" s="4"/>
-      <c r="AF68" s="4"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="3"/>
+      <c r="AF68" s="3"/>
     </row>
     <row r="69" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4" t="s">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G69" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="13">
         <v>2</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="21">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" s="28">
         <v>0.92300000000000004</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="22">
         <f t="shared" si="5"/>
         <v>1846</v>
       </c>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4" t="s">
+      <c r="L69" s="3"/>
+      <c r="M69" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="N69" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="O69" s="6" t="s">
+      <c r="O69" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="P69" s="4">
+      <c r="P69" s="13">
         <v>2</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="Q69" s="21">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
-      <c r="R69" s="5">
+      <c r="R69" s="28">
         <v>0.91300000000000003</v>
       </c>
-      <c r="S69" s="5">
+      <c r="S69" s="22">
         <f t="shared" si="7"/>
         <v>36520</v>
       </c>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4"/>
-      <c r="AA69" s="4"/>
-      <c r="AB69" s="4"/>
-      <c r="AC69" s="4"/>
-      <c r="AD69" s="4"/>
-      <c r="AE69" s="4"/>
-      <c r="AF69" s="4"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+      <c r="AD69" s="3"/>
+      <c r="AE69" s="3"/>
+      <c r="AF69" s="3"/>
     </row>
     <row r="70" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4" t="s">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H70" s="13">
         <v>4</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="21">
         <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="28">
         <v>8.09E-2</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="22">
         <f t="shared" si="5"/>
         <v>323.60000000000002</v>
       </c>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4" t="s">
+      <c r="L70" s="3"/>
+      <c r="M70" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="N70" s="4" t="s">
+      <c r="N70" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O70" s="6" t="s">
+      <c r="O70" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P70" s="4">
+      <c r="P70" s="13">
         <v>4</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="Q70" s="21">
         <f t="shared" si="6"/>
         <v>80000</v>
       </c>
-      <c r="R70" s="5">
+      <c r="R70" s="28">
         <v>6.991E-2</v>
       </c>
-      <c r="S70" s="5">
+      <c r="S70" s="22">
         <f t="shared" si="7"/>
         <v>5592.8</v>
       </c>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
-      <c r="AB70" s="4"/>
-      <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
-      <c r="AE70" s="4"/>
-      <c r="AF70" s="4"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
     </row>
     <row r="71" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4" t="s">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G71" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H71" s="4">
-        <v>1</v>
-      </c>
-      <c r="I71" s="4">
+      <c r="H71" s="13">
+        <v>1</v>
+      </c>
+      <c r="I71" s="21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="28">
         <v>7.72</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="22">
         <f t="shared" si="5"/>
         <v>7720</v>
       </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4" t="s">
+      <c r="L71" s="3"/>
+      <c r="M71" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="N71" s="4" t="s">
+      <c r="N71" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="O71" s="6" t="s">
+      <c r="O71" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="P71" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="4">
+      <c r="P71" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="21">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R71" s="5">
+      <c r="R71" s="28">
         <v>7.72</v>
       </c>
-      <c r="S71" s="5">
+      <c r="S71" s="22">
         <f t="shared" si="7"/>
         <v>154400</v>
       </c>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
-      <c r="AE71" s="4"/>
-      <c r="AF71" s="4"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
     </row>
     <row r="72" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H72" s="4">
-        <v>1</v>
-      </c>
-      <c r="I72" s="4">
+      <c r="H72" s="13">
+        <v>1</v>
+      </c>
+      <c r="I72" s="21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" s="28">
         <v>0.98799999999999999</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72" s="22">
         <f t="shared" si="5"/>
         <v>988</v>
       </c>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4" t="s">
+      <c r="L72" s="3"/>
+      <c r="M72" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="N72" s="4" t="s">
+      <c r="N72" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="O72" s="6" t="s">
+      <c r="O72" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="P72" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="4">
+      <c r="P72" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="21">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R72" s="5">
+      <c r="R72" s="28">
         <v>0.90300000000000002</v>
       </c>
-      <c r="S72" s="5">
+      <c r="S72" s="22">
         <f t="shared" si="7"/>
         <v>18060</v>
       </c>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
-      <c r="AA72" s="4"/>
-      <c r="AB72" s="4"/>
-      <c r="AC72" s="4"/>
-      <c r="AD72" s="4"/>
-      <c r="AE72" s="4"/>
-      <c r="AF72" s="4"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
+      <c r="AC72" s="3"/>
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="3"/>
+      <c r="AF72" s="3"/>
     </row>
     <row r="73" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4" t="s">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G73" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="13">
         <v>2</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="21">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73" s="28">
         <v>2.06</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K73" s="22">
         <f t="shared" si="5"/>
         <v>4120</v>
       </c>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4" t="s">
+      <c r="L73" s="3"/>
+      <c r="M73" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="N73" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="O73" s="6" t="s">
+      <c r="O73" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="P73" s="4">
+      <c r="P73" s="13">
         <v>2</v>
       </c>
-      <c r="Q73" s="4">
+      <c r="Q73" s="21">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
-      <c r="R73" s="5">
+      <c r="R73" s="28">
         <v>2.0499999999999998</v>
       </c>
-      <c r="S73" s="5">
+      <c r="S73" s="22">
         <f t="shared" si="7"/>
         <v>82000</v>
       </c>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="4"/>
-      <c r="AF73" s="4"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
     </row>
     <row r="74" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4" t="s">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H74" s="4">
-        <v>1</v>
-      </c>
-      <c r="I74" s="4">
+      <c r="H74" s="13">
+        <v>1</v>
+      </c>
+      <c r="I74" s="21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J74" s="5">
+      <c r="J74" s="28">
         <v>0.58099999999999996</v>
       </c>
-      <c r="K74" s="5">
+      <c r="K74" s="22">
         <f t="shared" si="5"/>
         <v>581</v>
       </c>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4" t="s">
+      <c r="L74" s="3"/>
+      <c r="M74" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="N74" s="4" t="s">
+      <c r="N74" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="O74" s="6" t="s">
+      <c r="O74" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P74" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="4">
+      <c r="P74" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="21">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R74" s="5">
+      <c r="R74" s="28">
         <v>0.54100000000000004</v>
       </c>
-      <c r="S74" s="5">
+      <c r="S74" s="22">
         <f t="shared" si="7"/>
         <v>10820</v>
       </c>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="4"/>
-      <c r="AA74" s="4"/>
-      <c r="AB74" s="4"/>
-      <c r="AC74" s="4"/>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="4"/>
-      <c r="AF74" s="4"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
     </row>
     <row r="75" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4" t="s">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="13">
         <v>2</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="21">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="28">
         <v>1.76</v>
       </c>
-      <c r="K75" s="5">
+      <c r="K75" s="22">
         <f t="shared" si="5"/>
         <v>3520</v>
       </c>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4" t="s">
+      <c r="L75" s="3"/>
+      <c r="M75" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="N75" s="4" t="s">
+      <c r="N75" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="O75" s="6" t="s">
+      <c r="O75" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="P75" s="4">
+      <c r="P75" s="13">
         <v>2</v>
       </c>
-      <c r="Q75" s="4">
+      <c r="Q75" s="21">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
-      <c r="R75" s="5">
+      <c r="R75" s="28">
         <v>1.76</v>
       </c>
-      <c r="S75" s="5">
+      <c r="S75" s="22">
         <f t="shared" si="7"/>
         <v>70400</v>
       </c>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
-      <c r="AD75" s="4"/>
-      <c r="AE75" s="4"/>
-      <c r="AF75" s="4"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
     </row>
     <row r="76" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H76" s="4">
-        <v>1</v>
-      </c>
-      <c r="I76" s="4">
+      <c r="H76" s="13">
+        <v>1</v>
+      </c>
+      <c r="I76" s="21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J76" s="28">
         <v>1.26</v>
       </c>
-      <c r="K76" s="5">
+      <c r="K76" s="22">
         <f t="shared" si="5"/>
         <v>1260</v>
       </c>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4" t="s">
+      <c r="L76" s="3"/>
+      <c r="M76" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="N76" s="4" t="s">
+      <c r="N76" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="O76" s="6" t="s">
+      <c r="O76" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P76" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="4">
+      <c r="P76" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="21">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R76" s="5">
+      <c r="R76" s="28">
         <v>1.26</v>
       </c>
-      <c r="S76" s="5">
+      <c r="S76" s="22">
         <f t="shared" si="7"/>
         <v>25200</v>
       </c>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4"/>
-      <c r="AF76" s="4"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3"/>
     </row>
     <row r="77" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4" t="s">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="13">
         <v>2</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I77" s="21">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77" s="28">
         <v>2.5</v>
       </c>
-      <c r="K77" s="5">
+      <c r="K77" s="22">
         <f t="shared" si="5"/>
         <v>5000</v>
       </c>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4" t="s">
+      <c r="L77" s="3"/>
+      <c r="M77" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="N77" s="4" t="s">
+      <c r="N77" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O77" s="6" t="s">
+      <c r="O77" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P77" s="4">
+      <c r="P77" s="13">
         <v>2</v>
       </c>
-      <c r="Q77" s="4">
+      <c r="Q77" s="21">
         <f t="shared" si="6"/>
         <v>40000</v>
       </c>
-      <c r="R77" s="5">
+      <c r="R77" s="28">
         <v>2.3479999999999999</v>
       </c>
-      <c r="S77" s="5">
+      <c r="S77" s="22">
         <f t="shared" si="7"/>
         <v>93920</v>
       </c>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4"/>
-      <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
-      <c r="AE77" s="4"/>
-      <c r="AF77" s="4"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
     </row>
     <row r="78" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4" t="s">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H78" s="4">
-        <v>1</v>
-      </c>
-      <c r="I78" s="4">
+      <c r="H78" s="13">
+        <v>1</v>
+      </c>
+      <c r="I78" s="21">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J78" s="28">
         <v>0.32300000000000001</v>
       </c>
-      <c r="K78" s="5">
+      <c r="K78" s="22">
         <f t="shared" si="5"/>
         <v>323</v>
       </c>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4" t="s">
+      <c r="L78" s="3"/>
+      <c r="M78" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N78" s="4" t="s">
+      <c r="N78" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="O78" s="6" t="s">
+      <c r="O78" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P78" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="4">
+      <c r="P78" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="21">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R78" s="5">
+      <c r="R78" s="28">
         <v>0.28089999999999998</v>
       </c>
-      <c r="S78" s="5">
+      <c r="S78" s="22">
         <f t="shared" si="7"/>
         <v>5618</v>
       </c>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4"/>
-      <c r="AA78" s="4"/>
-      <c r="AB78" s="4"/>
-      <c r="AC78" s="4"/>
-      <c r="AD78" s="4"/>
-      <c r="AE78" s="4"/>
-      <c r="AF78" s="4"/>
-    </row>
-    <row r="79" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4" t="s">
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+    </row>
+    <row r="79" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="H79" s="4">
-        <v>1</v>
-      </c>
-      <c r="I79" s="4">
+      <c r="H79" s="14">
+        <v>1</v>
+      </c>
+      <c r="I79" s="25">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J79" s="29">
         <f>K79/1000</f>
         <v>0.40560000000000002</v>
       </c>
-      <c r="K79" s="5">
+      <c r="K79" s="26">
         <v>405.6</v>
       </c>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4" t="s">
+      <c r="L79" s="3"/>
+      <c r="M79" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N79" s="4" t="s">
+      <c r="N79" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="O79" s="6" t="s">
+      <c r="O79" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P79" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="4">
+      <c r="P79" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="25">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="R79" s="5">
+      <c r="R79" s="29">
         <f>S79/20000</f>
         <v>0.31564999999999999</v>
       </c>
-      <c r="S79" s="5">
+      <c r="S79" s="26">
         <v>6313</v>
       </c>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
-      <c r="AA79" s="4"/>
-      <c r="AB79" s="4"/>
-      <c r="AC79" s="4"/>
-      <c r="AD79" s="4"/>
-      <c r="AE79" s="4"/>
-      <c r="AF79" s="4"/>
-    </row>
-    <row r="80" spans="3:32" x14ac:dyDescent="0.3">
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4"/>
-      <c r="AA80" s="4"/>
-      <c r="AB80" s="4"/>
-      <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
-      <c r="AE80" s="4"/>
-      <c r="AF80" s="4"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+    </row>
+    <row r="80" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
     </row>
     <row r="81" spans="3:32" ht="18" x14ac:dyDescent="0.3">
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="8" t="s">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="K81" s="8">
+      <c r="K81" s="31">
         <f>SUM(K48:K79)</f>
         <v>39733.199999999997</v>
       </c>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="8" t="s">
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="S81" s="8">
+      <c r="S81" s="31">
         <f>SUM(S48:S79)</f>
         <v>768725</v>
       </c>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4"/>
-      <c r="AA81" s="4"/>
-      <c r="AB81" s="4"/>
-      <c r="AC81" s="4"/>
-      <c r="AD81" s="4"/>
-      <c r="AE81" s="4"/>
-      <c r="AF81" s="4"/>
-    </row>
-    <row r="82" spans="3:32" ht="18" x14ac:dyDescent="0.3">
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="8" t="s">
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+    </row>
+    <row r="82" spans="3:32" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="K82" s="8">
+      <c r="K82" s="33">
         <f>K81/1000</f>
         <v>39.733199999999997</v>
       </c>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="8" t="s">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="S82" s="8">
+      <c r="S82" s="33">
         <f>S81/20000</f>
         <v>38.436250000000001</v>
       </c>
